--- a/docs/descriptive_stats.xlsx
+++ b/docs/descriptive_stats.xlsx
@@ -432,13 +432,13 @@
         <v>-0.001</v>
       </c>
       <c r="D2">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <v>4.793</v>
+        <v>5.557</v>
       </c>
       <c r="F2">
-        <v>-0.335</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,10 +455,10 @@
         <v>0.019</v>
       </c>
       <c r="E3">
-        <v>7.695</v>
+        <v>8.757999999999999</v>
       </c>
       <c r="F3">
-        <v>-0.07099999999999999</v>
+        <v>-0.362</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,10 +475,10 @@
         <v>0.02</v>
       </c>
       <c r="E4">
-        <v>11.088</v>
+        <v>13.71</v>
       </c>
       <c r="F4">
-        <v>-0.153</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,10 +495,10 @@
         <v>0.021</v>
       </c>
       <c r="E5">
-        <v>2.806</v>
+        <v>2.862</v>
       </c>
       <c r="F5">
-        <v>0.187</v>
+        <v>0.033</v>
       </c>
     </row>
   </sheetData>
